--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_13-30.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_13-30.xlsx
@@ -119,6 +119,9 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -137,7 +140,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>5:0</t>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -161,13 +167,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>-1:0</t>
-  </si>
-  <si>
     <t>كريم فيرند لافلي الصغير</t>
-  </si>
-  <si>
-    <t>6:0</t>
   </si>
   <si>
     <t>لونا مرطب شفاه</t>
@@ -1220,17 +1220,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1238,7 +1238,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1246,7 +1246,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1264,7 +1264,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1290,7 +1290,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1298,7 +1298,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -1316,7 +1316,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1324,17 +1324,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1342,7 +1342,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1350,7 +1350,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1368,7 +1368,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1376,7 +1376,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -1394,7 +1394,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1402,7 +1402,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -1420,7 +1420,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1428,7 +1428,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1446,7 +1446,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1454,7 +1454,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -1480,7 +1480,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="35" ht="26.25" customHeight="1">
       <c r="K35" s="10">
-        <v>1445.5799999999999</v>
+        <v>1464.5799999999999</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
